--- a/data/gafor_log.xlsx
+++ b/data/gafor_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG2"/>
+  <dimension ref="A1:CG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,6 +979,137 @@
       <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-10 08:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ostfriesland</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nordfriesland-Dithmarschen</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Schleswig-Holsteinische Geest</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Schleswig-Holsteinisches Hügelland</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nordwestliches Niedersachsen</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Lüneburger Heide</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Westliches Niedersachsen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Hannover und Braunschweig</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Teutoburger Wald</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Weser-Leine-Bergland</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gafor_log.xlsx
+++ b/data/gafor_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG3"/>
+  <dimension ref="A1:CG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,6 +1110,137 @@
       <c r="CF3" t="inlineStr"/>
       <c r="CG3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-12 08:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ostfriesland</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nordfriesland-Dithmarschen</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Schleswig-Holsteinische Geest</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Schleswig-Holsteinisches Hügelland</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nordwestliches Niedersachsen</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lüneburger Heide</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Westliches Niedersachsen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Hannover und Braunschweig</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Teutoburger Wald</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Weser-Leine-Bergland</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gafor_log.xlsx
+++ b/data/gafor_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG4"/>
+  <dimension ref="A1:CG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,6 +1241,137 @@
       <c r="CF4" t="inlineStr"/>
       <c r="CG4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-13 08:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ostfriesland</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nordfriesland-Dithmarschen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Schleswig-Holsteinische Geest</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Schleswig-Holsteinisches Hügelland</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nordwestliches Niedersachsen</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lüneburger Heide</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Westliches Niedersachsen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Hannover und Braunschweig</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Teutoburger Wald</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Weser-Leine-Bergland</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gafor_log.xlsx
+++ b/data/gafor_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG5"/>
+  <dimension ref="A1:CG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,6 +1372,137 @@
       <c r="CF5" t="inlineStr"/>
       <c r="CG5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-14 08:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ostfriesland</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nordfriesland-Dithmarschen</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Schleswig-Holsteinische Geest</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Schleswig-Holsteinisches Hügelland</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nordwestliches Niedersachsen</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lüneburger Heide</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Westliches Niedersachsen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Hannover und Braunschweig</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Teutoburger Wald</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Weser-Leine-Bergland</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
